--- a/script_master_data/DED-CONFIG2_Adopcion IA_v1a.xlsx
+++ b/script_master_data/DED-CONFIG2_Adopcion IA_v1a.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1622" documentId="13_ncr:1_{DFE0A30C-CFB8-48A3-9143-60D8C45831E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F385B113-2DA4-4AE1-B4FA-A33BE75A0592}"/>
+  <xr:revisionPtr revIDLastSave="1625" documentId="13_ncr:1_{DFE0A30C-CFB8-48A3-9143-60D8C45831E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29A7F3B5-B4E6-46DE-9284-EEA2DD65AEE0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdopcionIA" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -775,7 +773,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2475,7 +2473,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2537,7 +2535,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2683,7 +2681,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2860,7 +2858,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3010,7 +3008,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776388104"/>
@@ -3092,7 +3090,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3124,7 +3122,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776385544"/>
@@ -3189,7 +3187,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3221,7 +3219,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="114118151"/>
@@ -3281,7 +3279,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3311,7 +3309,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3387,7 +3385,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3438,7 +3436,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3586,7 +3584,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283272200"/>
@@ -3645,7 +3643,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283270152"/>
@@ -3686,7 +3684,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3762,7 +3760,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3776,17 +3774,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"No aplica Prompt"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No aplica Prompt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3824,7 +3811,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3914,6 +3901,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"No aplica Prompt"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No aplica Prompt</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CA46-4DB4-A635-9D635E341A25}"/>
             </c:ext>
@@ -3922,17 +3930,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"Uso IA"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Uso IA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="70AD47"/>
@@ -3970,7 +3967,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4060,6 +4057,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"Uso IA"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Uso IA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-CA46-4DB4-A635-9D635E341A25}"/>
             </c:ext>
@@ -4068,17 +4086,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"No uso IA"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No uso IA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="FFD966"/>
@@ -4116,7 +4123,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4177,7 +4184,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!J14:J20</c:f>
+              <c:f>Reporte!$J$14:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4206,6 +4213,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"No uso IA"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No uso IA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-CA46-4DB4-A635-9D635E341A25}"/>
             </c:ext>
@@ -4230,17 +4258,6 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"Total de tareas"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total de tareas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -4282,7 +4299,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!F14:F20</c:f>
+              <c:f>Reporte!$F$14:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4312,6 +4329,27 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"Total de tareas"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Total de tareas</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AAFA-4231-A5C1-836DA4DA0000}"/>
             </c:ext>
@@ -4336,17 +4374,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"% Uso IA"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>% Uso IA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4387,7 +4414,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4478,6 +4505,27 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"% Uso IA"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>% Uso IA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-CA46-4DB4-A635-9D635E341A25}"/>
             </c:ext>
@@ -4537,7 +4585,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1838961159"/>
@@ -4596,7 +4644,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1400368647"/>
@@ -4638,7 +4686,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1400858119"/>
@@ -4698,7 +4746,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -4737,7 +4785,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4767,7 +4815,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4851,7 +4899,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4865,17 +4913,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"No aplica Propmt"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No aplica Propmt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4913,7 +4950,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4956,6 +4993,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"No aplica Propmt"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No aplica Propmt</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-46A3-4B7C-B4D0-9B2450C1A3BB}"/>
             </c:ext>
@@ -4964,17 +5022,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"Uso IA"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Uso IA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="70AD47"/>
@@ -5012,7 +5059,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5044,7 +5091,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!F8</c:f>
+              <c:f>Reporte!$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5055,6 +5102,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"Uso IA"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Uso IA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-46A3-4B7C-B4D0-9B2450C1A3BB}"/>
             </c:ext>
@@ -5063,17 +5131,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"No uso IA"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No uso IA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="FFD966"/>
@@ -5111,7 +5168,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5154,6 +5211,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"No uso IA"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No uso IA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-46A3-4B7C-B4D0-9B2450C1A3BB}"/>
             </c:ext>
@@ -5224,7 +5302,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="684009991"/>
@@ -5276,7 +5354,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5306,7 +5384,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5382,7 +5460,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5842,7 +5920,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5998,7 +6076,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6154,7 +6232,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -6213,7 +6291,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -6255,7 +6333,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -6315,7 +6393,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6345,7 +6423,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6421,7 +6499,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6902,7 +6980,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7073,7 +7151,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7229,7 +7307,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171074056"/>
@@ -7288,7 +7366,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171072008"/>
@@ -7330,7 +7408,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2097866760"/>
@@ -7390,7 +7468,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7420,7 +7498,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7496,7 +7574,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7956,7 +8034,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8112,7 +8190,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171074056"/>
@@ -8171,7 +8249,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171072008"/>
@@ -8213,7 +8291,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2097866760"/>
@@ -8273,7 +8351,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8303,7 +8381,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8379,7 +8457,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8856,7 +8934,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9028,7 +9106,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9184,7 +9262,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -9243,7 +9321,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -9285,7 +9363,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -9345,7 +9423,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9375,7 +9453,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9451,7 +9529,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9911,7 +9989,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10067,7 +10145,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10223,7 +10301,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -10282,7 +10360,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -10324,7 +10402,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -10384,7 +10462,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10414,7 +10492,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10490,7 +10568,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10967,7 +11045,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11139,7 +11217,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11295,7 +11373,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -11354,7 +11432,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -11396,7 +11474,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -11456,7 +11534,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11486,7 +11564,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11562,7 +11640,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12022,7 +12100,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -12178,7 +12256,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -12334,7 +12412,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -12393,7 +12471,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -12435,7 +12513,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -12495,7 +12573,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12525,7 +12603,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12601,7 +12679,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12638,7 +12716,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C51:C58</c:f>
+              <c:f>Reporte!$C$51:$C$58</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -12733,7 +12811,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C51:C58</c:f>
+              <c:f>Reporte!$C$51:$C$58</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -12828,7 +12906,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C51:C58</c:f>
+              <c:f>Reporte!$C$51:$C$58</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -12923,7 +13001,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C51:C58</c:f>
+              <c:f>Reporte!$C$51:$C$58</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -13062,7 +13140,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -13094,7 +13172,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C51:C58</c:f>
+              <c:f>Reporte!$C$51:$C$58</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -13218,7 +13296,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -13250,7 +13328,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C51:C58</c:f>
+              <c:f>Reporte!$C$51:$C$58</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -13374,7 +13452,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -13433,7 +13511,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -13475,7 +13553,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069212168"/>
@@ -13535,7 +13613,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13565,7 +13643,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -20875,30 +20953,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BR196"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AP58" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="AQ66" sqref="AQ66"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="41" width="9.140625" style="1"/>
-    <col min="42" max="42" width="57.85546875" style="127" customWidth="1"/>
-    <col min="43" max="43" width="29.140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="1" customWidth="1"/>
+    <col min="7" max="11" width="9.1796875" style="1" customWidth="1"/>
+    <col min="12" max="41" width="9.1796875" style="1"/>
+    <col min="42" max="42" width="57.81640625" style="127" customWidth="1"/>
+    <col min="43" max="43" width="29.1796875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:44" ht="12.75" customHeight="1">
+    <row r="1" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P1" s="1">
         <f>SUM(P6:P155)</f>
         <v>0</v>
@@ -20924,17 +21002,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:44" ht="18.75">
+    <row r="2" spans="2:44" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:44" ht="15">
+    <row r="3" spans="2:44" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B3" s="82" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:44" s="2" customFormat="1" ht="15.75">
+    <row r="4" spans="2:44" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="G4" s="3"/>
       <c r="H4" s="4" t="s">
         <v>2</v>
@@ -20986,7 +21064,7 @@
       <c r="AO4" s="6"/>
       <c r="AP4" s="128"/>
     </row>
-    <row r="5" spans="2:44" ht="40.5">
+    <row r="5" spans="2:44" ht="39" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -21117,7 +21195,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:44" ht="13.5">
+    <row r="6" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="148" t="s">
         <v>22</v>
       </c>
@@ -21250,7 +21328,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="7" spans="2:44" ht="13.5">
+    <row r="7" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B7" s="156" t="s">
         <v>22</v>
       </c>
@@ -21375,15 +21453,15 @@
         <v>28</v>
       </c>
       <c r="AQ7" s="28" t="str">
-        <f t="shared" ref="AQ7:AQ70" si="0">IF(OR(G7="S",L7="S",Q7="S",V7="S",AA7="S",AF7="S",AK7="S"),"S","N")</f>
+        <f t="shared" ref="AQ7:AQ65" si="0">IF(OR(G7="S",L7="S",Q7="S",V7="S",AA7="S",AF7="S",AK7="S"),"S","N")</f>
         <v>N</v>
       </c>
       <c r="AR7" s="28" t="str">
-        <f t="shared" ref="AR7:AR70" si="1">IF(OR(H7="S",M7="S",R7="S",W7="S",AB7="S",AG7="S",AL7="S"),"S","N")</f>
+        <f t="shared" ref="AR7:AR65" si="1">IF(OR(H7="S",M7="S",R7="S",W7="S",AB7="S",AG7="S",AL7="S"),"S","N")</f>
         <v>N</v>
       </c>
     </row>
-    <row r="8" spans="2:44" ht="27">
+    <row r="8" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B8" s="156" t="s">
         <v>22</v>
       </c>
@@ -21516,7 +21594,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="9" spans="2:44" ht="13.5">
+    <row r="9" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="156" t="s">
         <v>22</v>
       </c>
@@ -21649,7 +21727,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="10" spans="2:44" ht="13.5">
+    <row r="10" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="156" t="s">
         <v>22</v>
       </c>
@@ -21782,7 +21860,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="11" spans="2:44" ht="13.5">
+    <row r="11" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="156" t="s">
         <v>22</v>
       </c>
@@ -21915,7 +21993,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="12" spans="2:44" ht="27">
+    <row r="12" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B12" s="156" t="s">
         <v>22</v>
       </c>
@@ -22048,7 +22126,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="13" spans="2:44" ht="27">
+    <row r="13" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B13" s="156" t="s">
         <v>22</v>
       </c>
@@ -22181,7 +22259,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="14" spans="2:44" ht="27">
+    <row r="14" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B14" s="156" t="s">
         <v>22</v>
       </c>
@@ -22314,7 +22392,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="15" spans="2:44" ht="13.5">
+    <row r="15" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="156" t="s">
         <v>22</v>
       </c>
@@ -22447,7 +22525,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="16" spans="2:44" ht="27">
+    <row r="16" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B16" s="156" t="s">
         <v>22</v>
       </c>
@@ -22580,7 +22658,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="17" spans="2:44" ht="13.5">
+    <row r="17" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="156" t="s">
         <v>22</v>
       </c>
@@ -22713,7 +22791,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="18" spans="2:44" ht="13.5">
+    <row r="18" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="156" t="s">
         <v>22</v>
       </c>
@@ -22846,7 +22924,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="19" spans="2:44" ht="27">
+    <row r="19" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B19" s="156" t="s">
         <v>22</v>
       </c>
@@ -22979,7 +23057,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="20" spans="2:44" ht="27">
+    <row r="20" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B20" s="156" t="s">
         <v>22</v>
       </c>
@@ -23112,7 +23190,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="21" spans="2:44" ht="13.5">
+    <row r="21" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B21" s="156" t="s">
         <v>22</v>
       </c>
@@ -23245,7 +23323,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="22" spans="2:44" ht="27">
+    <row r="22" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B22" s="156" t="s">
         <v>22</v>
       </c>
@@ -23378,7 +23456,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="23" spans="2:44" ht="27">
+    <row r="23" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B23" s="156" t="s">
         <v>22</v>
       </c>
@@ -23511,7 +23589,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="24" spans="2:44" ht="27">
+    <row r="24" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B24" s="167" t="s">
         <v>22</v>
       </c>
@@ -23644,7 +23722,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="25" spans="2:44" ht="13.5">
+    <row r="25" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B25" s="169" t="s">
         <v>22</v>
       </c>
@@ -23777,7 +23855,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="26" spans="2:44" ht="13.5">
+    <row r="26" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B26" s="170" t="s">
         <v>22</v>
       </c>
@@ -23910,7 +23988,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="27" spans="2:44" ht="13.5">
+    <row r="27" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B27" s="170" t="s">
         <v>22</v>
       </c>
@@ -24043,7 +24121,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="28" spans="2:44" ht="13.5">
+    <row r="28" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B28" s="170" t="s">
         <v>22</v>
       </c>
@@ -24176,7 +24254,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="29" spans="2:44" ht="13.5">
+    <row r="29" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B29" s="170" t="s">
         <v>22</v>
       </c>
@@ -24309,7 +24387,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="30" spans="2:44" ht="13.5">
+    <row r="30" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B30" s="170" t="s">
         <v>22</v>
       </c>
@@ -24440,7 +24518,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="31" spans="2:44" ht="27">
+    <row r="31" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B31" s="170" t="s">
         <v>22</v>
       </c>
@@ -24573,7 +24651,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="32" spans="2:44" ht="13.5">
+    <row r="32" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B32" s="170" t="s">
         <v>22</v>
       </c>
@@ -24706,7 +24784,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="33" spans="2:44" ht="27">
+    <row r="33" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B33" s="170" t="s">
         <v>22</v>
       </c>
@@ -24837,7 +24915,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="34" spans="2:44" ht="27">
+    <row r="34" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B34" s="170" t="s">
         <v>22</v>
       </c>
@@ -24968,7 +25046,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="2:44" ht="13.5">
+    <row r="35" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B35" s="170" t="s">
         <v>22</v>
       </c>
@@ -25099,7 +25177,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="36" spans="2:44" ht="13.5">
+    <row r="36" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B36" s="170" t="s">
         <v>22</v>
       </c>
@@ -25232,7 +25310,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="37" spans="2:44" ht="27">
+    <row r="37" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B37" s="170" t="s">
         <v>22</v>
       </c>
@@ -25365,7 +25443,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="38" spans="2:44" ht="27">
+    <row r="38" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B38" s="170" t="s">
         <v>22</v>
       </c>
@@ -25498,7 +25576,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="39" spans="2:44" ht="13.5">
+    <row r="39" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B39" s="170" t="s">
         <v>22</v>
       </c>
@@ -25631,7 +25709,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="40" spans="2:44" ht="13.5">
+    <row r="40" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B40" s="170" t="s">
         <v>22</v>
       </c>
@@ -25764,7 +25842,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="41" spans="2:44" ht="13.5">
+    <row r="41" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B41" s="170" t="s">
         <v>22</v>
       </c>
@@ -25897,7 +25975,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="42" spans="2:44" ht="13.5">
+    <row r="42" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B42" s="170" t="s">
         <v>22</v>
       </c>
@@ -26030,7 +26108,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="43" spans="2:44" ht="27">
+    <row r="43" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B43" s="170" t="s">
         <v>22</v>
       </c>
@@ -26163,7 +26241,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="44" spans="2:44" ht="13.5">
+    <row r="44" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B44" s="170" t="s">
         <v>22</v>
       </c>
@@ -26296,7 +26374,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="45" spans="2:44" ht="27">
+    <row r="45" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B45" s="170" t="s">
         <v>22</v>
       </c>
@@ -26429,7 +26507,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="46" spans="2:44" ht="27">
+    <row r="46" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B46" s="170" t="s">
         <v>22</v>
       </c>
@@ -26562,7 +26640,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="47" spans="2:44" ht="27">
+    <row r="47" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B47" s="170" t="s">
         <v>22</v>
       </c>
@@ -26695,7 +26773,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="48" spans="2:44" ht="13.5">
+    <row r="48" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B48" s="170" t="s">
         <v>22</v>
       </c>
@@ -26828,7 +26906,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="49" spans="2:44" ht="13.5">
+    <row r="49" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B49" s="170" t="s">
         <v>22</v>
       </c>
@@ -26961,7 +27039,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="50" spans="2:44" ht="13.5">
+    <row r="50" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B50" s="170" t="s">
         <v>22</v>
       </c>
@@ -27094,7 +27172,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="51" spans="2:44" ht="27">
+    <row r="51" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B51" s="170" t="s">
         <v>22</v>
       </c>
@@ -27227,7 +27305,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="52" spans="2:44" ht="13.5">
+    <row r="52" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B52" s="170" t="s">
         <v>22</v>
       </c>
@@ -27360,7 +27438,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="53" spans="2:44" ht="27">
+    <row r="53" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B53" s="170" t="s">
         <v>22</v>
       </c>
@@ -27493,7 +27571,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="54" spans="2:44" ht="27">
+    <row r="54" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B54" s="170" t="s">
         <v>22</v>
       </c>
@@ -27626,7 +27704,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="55" spans="2:44" ht="13.5">
+    <row r="55" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B55" s="170" t="s">
         <v>22</v>
       </c>
@@ -27759,7 +27837,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="56" spans="2:44" ht="27">
+    <row r="56" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B56" s="170" t="s">
         <v>22</v>
       </c>
@@ -27892,7 +27970,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="57" spans="2:44" ht="13.5">
+    <row r="57" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B57" s="170" t="s">
         <v>22</v>
       </c>
@@ -28025,7 +28103,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="58" spans="2:44" ht="27">
+    <row r="58" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B58" s="170" t="s">
         <v>22</v>
       </c>
@@ -28158,7 +28236,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="59" spans="2:44" ht="27">
+    <row r="59" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B59" s="170" t="s">
         <v>22</v>
       </c>
@@ -28291,7 +28369,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="60" spans="2:44" ht="27">
+    <row r="60" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B60" s="170" t="s">
         <v>22</v>
       </c>
@@ -28424,7 +28502,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="61" spans="2:44" ht="27">
+    <row r="61" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B61" s="170" t="s">
         <v>22</v>
       </c>
@@ -28557,7 +28635,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="62" spans="2:44" ht="13.5">
+    <row r="62" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B62" s="170" t="s">
         <v>22</v>
       </c>
@@ -28690,7 +28768,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="63" spans="2:44" ht="13.5">
+    <row r="63" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B63" s="170" t="s">
         <v>22</v>
       </c>
@@ -28823,7 +28901,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="64" spans="2:44" ht="13.5">
+    <row r="64" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B64" s="170" t="s">
         <v>22</v>
       </c>
@@ -28956,7 +29034,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="65" spans="2:44" ht="13.5">
+    <row r="65" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B65" s="170" t="s">
         <v>22</v>
       </c>
@@ -29089,7 +29167,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="66" spans="2:44">
+    <row r="66" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B66" s="9"/>
       <c r="C66" s="157"/>
       <c r="D66" s="10"/>
@@ -29134,7 +29212,7 @@
       <c r="AQ66" s="28"/>
       <c r="AR66" s="28"/>
     </row>
-    <row r="67" spans="2:44">
+    <row r="67" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B67" s="9"/>
       <c r="C67" s="157"/>
       <c r="D67" s="10"/>
@@ -29179,7 +29257,7 @@
       <c r="AQ67" s="28"/>
       <c r="AR67" s="28"/>
     </row>
-    <row r="68" spans="2:44">
+    <row r="68" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B68" s="9"/>
       <c r="C68" s="157"/>
       <c r="D68" s="10"/>
@@ -29224,7 +29302,7 @@
       <c r="AQ68" s="28"/>
       <c r="AR68" s="28"/>
     </row>
-    <row r="69" spans="2:44">
+    <row r="69" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B69" s="9"/>
       <c r="C69" s="157"/>
       <c r="D69" s="10"/>
@@ -29269,7 +29347,7 @@
       <c r="AQ69" s="28"/>
       <c r="AR69" s="28"/>
     </row>
-    <row r="70" spans="2:44">
+    <row r="70" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="157"/>
       <c r="D70" s="10"/>
@@ -29314,7 +29392,7 @@
       <c r="AQ70" s="28"/>
       <c r="AR70" s="28"/>
     </row>
-    <row r="71" spans="2:44">
+    <row r="71" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B71" s="9"/>
       <c r="C71" s="157"/>
       <c r="D71" s="10"/>
@@ -29359,7 +29437,7 @@
       <c r="AQ71" s="28"/>
       <c r="AR71" s="28"/>
     </row>
-    <row r="72" spans="2:44">
+    <row r="72" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B72" s="9"/>
       <c r="C72" s="157"/>
       <c r="D72" s="10"/>
@@ -29404,7 +29482,7 @@
       <c r="AQ72" s="28"/>
       <c r="AR72" s="28"/>
     </row>
-    <row r="73" spans="2:44">
+    <row r="73" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B73" s="9"/>
       <c r="C73" s="157"/>
       <c r="D73" s="10"/>
@@ -29449,7 +29527,7 @@
       <c r="AQ73" s="28"/>
       <c r="AR73" s="28"/>
     </row>
-    <row r="74" spans="2:44">
+    <row r="74" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B74" s="9"/>
       <c r="C74" s="157"/>
       <c r="D74" s="10"/>
@@ -29494,7 +29572,7 @@
       <c r="AQ74" s="28"/>
       <c r="AR74" s="28"/>
     </row>
-    <row r="75" spans="2:44">
+    <row r="75" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B75" s="9"/>
       <c r="C75" s="157"/>
       <c r="D75" s="10"/>
@@ -29539,7 +29617,7 @@
       <c r="AQ75" s="28"/>
       <c r="AR75" s="28"/>
     </row>
-    <row r="76" spans="2:44">
+    <row r="76" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B76" s="9"/>
       <c r="C76" s="157"/>
       <c r="D76" s="10"/>
@@ -29578,7 +29656,7 @@
       <c r="AQ76" s="28"/>
       <c r="AR76" s="28"/>
     </row>
-    <row r="77" spans="2:44">
+    <row r="77" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B77" s="9"/>
       <c r="C77" s="157"/>
       <c r="D77" s="10"/>
@@ -29623,7 +29701,7 @@
       <c r="AQ77" s="28"/>
       <c r="AR77" s="28"/>
     </row>
-    <row r="78" spans="2:44">
+    <row r="78" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B78" s="9"/>
       <c r="C78" s="157"/>
       <c r="D78" s="10"/>
@@ -29668,7 +29746,7 @@
       <c r="AQ78" s="28"/>
       <c r="AR78" s="28"/>
     </row>
-    <row r="79" spans="2:44">
+    <row r="79" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B79" s="9"/>
       <c r="C79" s="157"/>
       <c r="D79" s="10"/>
@@ -29713,7 +29791,7 @@
       <c r="AQ79" s="28"/>
       <c r="AR79" s="28"/>
     </row>
-    <row r="80" spans="2:44">
+    <row r="80" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B80" s="9"/>
       <c r="C80" s="157"/>
       <c r="D80" s="10"/>
@@ -29758,7 +29836,7 @@
       <c r="AQ80" s="28"/>
       <c r="AR80" s="28"/>
     </row>
-    <row r="81" spans="2:44">
+    <row r="81" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B81" s="9"/>
       <c r="C81" s="157"/>
       <c r="D81" s="10"/>
@@ -29803,7 +29881,7 @@
       <c r="AQ81" s="28"/>
       <c r="AR81" s="28"/>
     </row>
-    <row r="82" spans="2:44">
+    <row r="82" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
       <c r="C82" s="157"/>
       <c r="D82" s="10"/>
@@ -29848,7 +29926,7 @@
       <c r="AQ82" s="28"/>
       <c r="AR82" s="28"/>
     </row>
-    <row r="83" spans="2:44">
+    <row r="83" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B83" s="9"/>
       <c r="C83" s="157"/>
       <c r="D83" s="10"/>
@@ -29893,7 +29971,7 @@
       <c r="AQ83" s="28"/>
       <c r="AR83" s="28"/>
     </row>
-    <row r="84" spans="2:44">
+    <row r="84" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="157"/>
       <c r="D84" s="10"/>
@@ -29938,7 +30016,7 @@
       <c r="AQ84" s="28"/>
       <c r="AR84" s="28"/>
     </row>
-    <row r="85" spans="2:44">
+    <row r="85" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B85" s="9"/>
       <c r="C85" s="157"/>
       <c r="D85" s="10"/>
@@ -29983,7 +30061,7 @@
       <c r="AQ85" s="28"/>
       <c r="AR85" s="28"/>
     </row>
-    <row r="86" spans="2:44">
+    <row r="86" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B86" s="9"/>
       <c r="C86" s="157"/>
       <c r="D86" s="10"/>
@@ -30028,7 +30106,7 @@
       <c r="AQ86" s="28"/>
       <c r="AR86" s="28"/>
     </row>
-    <row r="87" spans="2:44">
+    <row r="87" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B87" s="9"/>
       <c r="C87" s="157"/>
       <c r="D87" s="10"/>
@@ -30073,7 +30151,7 @@
       <c r="AQ87" s="28"/>
       <c r="AR87" s="28"/>
     </row>
-    <row r="88" spans="2:44">
+    <row r="88" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B88" s="9"/>
       <c r="C88" s="157"/>
       <c r="D88" s="10"/>
@@ -30118,7 +30196,7 @@
       <c r="AQ88" s="28"/>
       <c r="AR88" s="28"/>
     </row>
-    <row r="89" spans="2:44">
+    <row r="89" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B89" s="9"/>
       <c r="C89" s="157"/>
       <c r="D89" s="10"/>
@@ -30163,7 +30241,7 @@
       <c r="AQ89" s="28"/>
       <c r="AR89" s="28"/>
     </row>
-    <row r="90" spans="2:44">
+    <row r="90" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B90" s="9"/>
       <c r="C90" s="157"/>
       <c r="D90" s="10"/>
@@ -30208,7 +30286,7 @@
       <c r="AQ90" s="28"/>
       <c r="AR90" s="28"/>
     </row>
-    <row r="91" spans="2:44">
+    <row r="91" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B91" s="9"/>
       <c r="C91" s="157"/>
       <c r="D91" s="10"/>
@@ -30253,7 +30331,7 @@
       <c r="AQ91" s="28"/>
       <c r="AR91" s="28"/>
     </row>
-    <row r="92" spans="2:44">
+    <row r="92" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B92" s="9"/>
       <c r="C92" s="157"/>
       <c r="D92" s="10"/>
@@ -30298,7 +30376,7 @@
       <c r="AQ92" s="28"/>
       <c r="AR92" s="28"/>
     </row>
-    <row r="93" spans="2:44">
+    <row r="93" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B93" s="9"/>
       <c r="C93" s="157"/>
       <c r="D93" s="10"/>
@@ -30343,7 +30421,7 @@
       <c r="AQ93" s="28"/>
       <c r="AR93" s="28"/>
     </row>
-    <row r="94" spans="2:44">
+    <row r="94" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B94" s="9"/>
       <c r="C94" s="157"/>
       <c r="D94" s="10"/>
@@ -30388,7 +30466,7 @@
       <c r="AQ94" s="28"/>
       <c r="AR94" s="28"/>
     </row>
-    <row r="95" spans="2:44" ht="15">
+    <row r="95" spans="2:44" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B95" s="9"/>
       <c r="C95" s="157"/>
       <c r="D95" s="10"/>
@@ -30433,7 +30511,7 @@
       <c r="AQ95" s="28"/>
       <c r="AR95" s="28"/>
     </row>
-    <row r="96" spans="2:44" ht="15">
+    <row r="96" spans="2:44" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B96" s="9"/>
       <c r="C96" s="157"/>
       <c r="D96" s="10"/>
@@ -30478,7 +30556,7 @@
       <c r="AQ96" s="28"/>
       <c r="AR96" s="28"/>
     </row>
-    <row r="97" spans="2:44">
+    <row r="97" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B97" s="9"/>
       <c r="C97" s="157"/>
       <c r="D97" s="10"/>
@@ -30523,7 +30601,7 @@
       <c r="AQ97" s="28"/>
       <c r="AR97" s="28"/>
     </row>
-    <row r="98" spans="2:44">
+    <row r="98" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="157"/>
       <c r="D98" s="10"/>
@@ -30568,7 +30646,7 @@
       <c r="AQ98" s="28"/>
       <c r="AR98" s="28"/>
     </row>
-    <row r="99" spans="2:44">
+    <row r="99" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B99" s="9"/>
       <c r="C99" s="157"/>
       <c r="D99" s="10"/>
@@ -30613,7 +30691,7 @@
       <c r="AQ99" s="28"/>
       <c r="AR99" s="28"/>
     </row>
-    <row r="100" spans="2:44">
+    <row r="100" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B100" s="9"/>
       <c r="C100" s="157"/>
       <c r="D100" s="10"/>
@@ -30658,7 +30736,7 @@
       <c r="AQ100" s="28"/>
       <c r="AR100" s="28"/>
     </row>
-    <row r="101" spans="2:44" ht="45.75" customHeight="1">
+    <row r="101" spans="2:44" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="9"/>
       <c r="C101" s="157"/>
       <c r="D101" s="10"/>
@@ -30703,7 +30781,7 @@
       <c r="AQ101" s="28"/>
       <c r="AR101" s="28"/>
     </row>
-    <row r="102" spans="2:44">
+    <row r="102" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B102" s="9"/>
       <c r="C102" s="157"/>
       <c r="D102" s="10"/>
@@ -30748,7 +30826,7 @@
       <c r="AQ102" s="28"/>
       <c r="AR102" s="28"/>
     </row>
-    <row r="103" spans="2:44">
+    <row r="103" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B103" s="9"/>
       <c r="C103" s="157"/>
       <c r="D103" s="10"/>
@@ -30793,7 +30871,7 @@
       <c r="AQ103" s="28"/>
       <c r="AR103" s="28"/>
     </row>
-    <row r="104" spans="2:44">
+    <row r="104" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B104" s="9"/>
       <c r="C104" s="157"/>
       <c r="D104" s="10"/>
@@ -30838,7 +30916,7 @@
       <c r="AQ104" s="28"/>
       <c r="AR104" s="28"/>
     </row>
-    <row r="105" spans="2:44">
+    <row r="105" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B105" s="9"/>
       <c r="C105" s="157"/>
       <c r="D105" s="10"/>
@@ -30883,7 +30961,7 @@
       <c r="AQ105" s="28"/>
       <c r="AR105" s="28"/>
     </row>
-    <row r="106" spans="2:44">
+    <row r="106" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B106" s="9"/>
       <c r="C106" s="157"/>
       <c r="D106" s="10"/>
@@ -30928,7 +31006,7 @@
       <c r="AQ106" s="28"/>
       <c r="AR106" s="28"/>
     </row>
-    <row r="107" spans="2:44">
+    <row r="107" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B107" s="9"/>
       <c r="C107" s="157"/>
       <c r="D107" s="10"/>
@@ -30973,7 +31051,7 @@
       <c r="AQ107" s="28"/>
       <c r="AR107" s="28"/>
     </row>
-    <row r="108" spans="2:44">
+    <row r="108" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B108" s="9"/>
       <c r="C108" s="157"/>
       <c r="D108" s="10"/>
@@ -31018,7 +31096,7 @@
       <c r="AQ108" s="28"/>
       <c r="AR108" s="28"/>
     </row>
-    <row r="109" spans="2:44" ht="12.75" customHeight="1">
+    <row r="109" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="9"/>
       <c r="C109" s="157"/>
       <c r="D109" s="10"/>
@@ -31063,7 +31141,7 @@
       <c r="AQ109" s="28"/>
       <c r="AR109" s="28"/>
     </row>
-    <row r="110" spans="2:44" ht="12.75" customHeight="1">
+    <row r="110" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="9"/>
       <c r="C110" s="157"/>
       <c r="D110" s="10"/>
@@ -31108,7 +31186,7 @@
       <c r="AQ110" s="28"/>
       <c r="AR110" s="28"/>
     </row>
-    <row r="111" spans="2:44" ht="12.75" customHeight="1">
+    <row r="111" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="9"/>
       <c r="C111" s="157"/>
       <c r="D111" s="10"/>
@@ -31153,7 +31231,7 @@
       <c r="AQ111" s="28"/>
       <c r="AR111" s="28"/>
     </row>
-    <row r="112" spans="2:44" ht="28.5" customHeight="1">
+    <row r="112" spans="2:44" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="157"/>
       <c r="D112" s="10"/>
@@ -31198,7 +31276,7 @@
       <c r="AQ112" s="28"/>
       <c r="AR112" s="28"/>
     </row>
-    <row r="113" spans="2:70" ht="12.75" customHeight="1">
+    <row r="113" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="9"/>
       <c r="C113" s="157"/>
       <c r="D113" s="10"/>
@@ -31243,7 +31321,7 @@
       <c r="AQ113" s="28"/>
       <c r="AR113" s="28"/>
     </row>
-    <row r="114" spans="2:70" ht="12.75" customHeight="1">
+    <row r="114" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="9"/>
       <c r="C114" s="157"/>
       <c r="D114" s="10"/>
@@ -31288,7 +31366,7 @@
       <c r="AQ114" s="28"/>
       <c r="AR114" s="28"/>
     </row>
-    <row r="115" spans="2:70" ht="12.75" customHeight="1">
+    <row r="115" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="9"/>
       <c r="C115" s="157"/>
       <c r="D115" s="10"/>
@@ -31333,7 +31411,7 @@
       <c r="AQ115" s="28"/>
       <c r="AR115" s="28"/>
     </row>
-    <row r="116" spans="2:70" ht="12.75" customHeight="1">
+    <row r="116" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="9"/>
       <c r="C116" s="157"/>
       <c r="D116" s="10"/>
@@ -31378,7 +31456,7 @@
       <c r="AQ116" s="28"/>
       <c r="AR116" s="28"/>
     </row>
-    <row r="117" spans="2:70" ht="12.75" customHeight="1">
+    <row r="117" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="9"/>
       <c r="C117" s="157"/>
       <c r="D117" s="10"/>
@@ -31423,7 +31501,7 @@
       <c r="AQ117" s="28"/>
       <c r="AR117" s="28"/>
     </row>
-    <row r="118" spans="2:70" ht="12.75" customHeight="1">
+    <row r="118" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="9"/>
       <c r="C118" s="157"/>
       <c r="D118" s="10"/>
@@ -31468,7 +31546,7 @@
       <c r="AQ118" s="28"/>
       <c r="AR118" s="28"/>
     </row>
-    <row r="119" spans="2:70" ht="12.75" customHeight="1">
+    <row r="119" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="9"/>
       <c r="C119" s="157"/>
       <c r="D119" s="10"/>
@@ -31513,7 +31591,7 @@
       <c r="AQ119" s="28"/>
       <c r="AR119" s="28"/>
     </row>
-    <row r="120" spans="2:70" ht="12.75" customHeight="1">
+    <row r="120" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="9"/>
       <c r="C120" s="157"/>
       <c r="D120" s="10"/>
@@ -31558,7 +31636,7 @@
       <c r="AQ120" s="28"/>
       <c r="AR120" s="28"/>
     </row>
-    <row r="121" spans="2:70" ht="42.75" customHeight="1">
+    <row r="121" spans="2:70" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="9"/>
       <c r="C121" s="157"/>
       <c r="D121" s="10"/>
@@ -31603,7 +31681,7 @@
       <c r="AQ121" s="28"/>
       <c r="AR121" s="28"/>
     </row>
-    <row r="122" spans="2:70" ht="12.75" customHeight="1">
+    <row r="122" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="9"/>
       <c r="C122" s="157"/>
       <c r="D122" s="10"/>
@@ -31648,7 +31726,7 @@
       <c r="AQ122" s="28"/>
       <c r="AR122" s="28"/>
     </row>
-    <row r="123" spans="2:70" ht="12.75" customHeight="1">
+    <row r="123" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="9"/>
       <c r="C123" s="157"/>
       <c r="D123" s="10"/>
@@ -31719,7 +31797,7 @@
       <c r="BQ123" s="106"/>
       <c r="BR123" s="106"/>
     </row>
-    <row r="124" spans="2:70" ht="12.75" customHeight="1">
+    <row r="124" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="9"/>
       <c r="C124" s="157"/>
       <c r="D124" s="10"/>
@@ -31764,7 +31842,7 @@
       <c r="AQ124" s="28"/>
       <c r="AR124" s="28"/>
     </row>
-    <row r="125" spans="2:70" ht="12.75" customHeight="1">
+    <row r="125" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="9"/>
       <c r="C125" s="157"/>
       <c r="D125" s="10"/>
@@ -31809,7 +31887,7 @@
       <c r="AQ125" s="28"/>
       <c r="AR125" s="28"/>
     </row>
-    <row r="126" spans="2:70" ht="12.75" customHeight="1">
+    <row r="126" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="157"/>
       <c r="D126" s="10"/>
@@ -31854,7 +31932,7 @@
       <c r="AQ126" s="28"/>
       <c r="AR126" s="28"/>
     </row>
-    <row r="127" spans="2:70" ht="12.75" customHeight="1">
+    <row r="127" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="9"/>
       <c r="C127" s="157"/>
       <c r="D127" s="10"/>
@@ -31899,7 +31977,7 @@
       <c r="AQ127" s="28"/>
       <c r="AR127" s="28"/>
     </row>
-    <row r="128" spans="2:70" ht="12.75" customHeight="1">
+    <row r="128" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="9"/>
       <c r="C128" s="157"/>
       <c r="D128" s="10"/>
@@ -31944,7 +32022,7 @@
       <c r="AQ128" s="28"/>
       <c r="AR128" s="28"/>
     </row>
-    <row r="129" spans="2:44" ht="12.75" customHeight="1">
+    <row r="129" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="9"/>
       <c r="C129" s="157"/>
       <c r="D129" s="10"/>
@@ -31989,7 +32067,7 @@
       <c r="AQ129" s="28"/>
       <c r="AR129" s="28"/>
     </row>
-    <row r="130" spans="2:44" ht="27" customHeight="1">
+    <row r="130" spans="2:44" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="9"/>
       <c r="C130" s="157"/>
       <c r="D130" s="10"/>
@@ -32034,7 +32112,7 @@
       <c r="AQ130" s="28"/>
       <c r="AR130" s="28"/>
     </row>
-    <row r="131" spans="2:44" ht="12.75" customHeight="1">
+    <row r="131" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="9"/>
       <c r="C131" s="157"/>
       <c r="D131" s="10"/>
@@ -32079,7 +32157,7 @@
       <c r="AQ131" s="28"/>
       <c r="AR131" s="28"/>
     </row>
-    <row r="132" spans="2:44" ht="12.75" customHeight="1">
+    <row r="132" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="9"/>
       <c r="C132" s="157"/>
       <c r="D132" s="10"/>
@@ -32124,7 +32202,7 @@
       <c r="AQ132" s="28"/>
       <c r="AR132" s="28"/>
     </row>
-    <row r="133" spans="2:44" ht="12.75" customHeight="1">
+    <row r="133" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="9"/>
       <c r="C133" s="157"/>
       <c r="D133" s="10"/>
@@ -32169,7 +32247,7 @@
       <c r="AQ133" s="28"/>
       <c r="AR133" s="28"/>
     </row>
-    <row r="134" spans="2:44" ht="12.75" customHeight="1">
+    <row r="134" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="9"/>
       <c r="C134" s="157"/>
       <c r="D134" s="10"/>
@@ -32214,7 +32292,7 @@
       <c r="AQ134" s="28"/>
       <c r="AR134" s="28"/>
     </row>
-    <row r="135" spans="2:44" ht="12.75" customHeight="1">
+    <row r="135" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="9"/>
       <c r="C135" s="157"/>
       <c r="D135" s="10"/>
@@ -32259,7 +32337,7 @@
       <c r="AQ135" s="28"/>
       <c r="AR135" s="28"/>
     </row>
-    <row r="136" spans="2:44" ht="12.75" customHeight="1">
+    <row r="136" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="9"/>
       <c r="C136" s="157"/>
       <c r="D136" s="10"/>
@@ -32304,7 +32382,7 @@
       <c r="AQ136" s="28"/>
       <c r="AR136" s="28"/>
     </row>
-    <row r="137" spans="2:44" ht="12.75" customHeight="1">
+    <row r="137" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="9"/>
       <c r="C137" s="157"/>
       <c r="D137" s="10"/>
@@ -32349,7 +32427,7 @@
       <c r="AQ137" s="28"/>
       <c r="AR137" s="28"/>
     </row>
-    <row r="138" spans="2:44" ht="12.75" customHeight="1">
+    <row r="138" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="9"/>
       <c r="C138" s="157"/>
       <c r="D138" s="10"/>
@@ -32394,7 +32472,7 @@
       <c r="AQ138" s="28"/>
       <c r="AR138" s="28"/>
     </row>
-    <row r="139" spans="2:44" ht="12.75" customHeight="1">
+    <row r="139" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="9"/>
       <c r="C139" s="157"/>
       <c r="D139" s="10"/>
@@ -32439,7 +32517,7 @@
       <c r="AQ139" s="28"/>
       <c r="AR139" s="28"/>
     </row>
-    <row r="140" spans="2:44" ht="12.75" customHeight="1">
+    <row r="140" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="157"/>
       <c r="D140" s="10"/>
@@ -32484,7 +32562,7 @@
       <c r="AQ140" s="28"/>
       <c r="AR140" s="28"/>
     </row>
-    <row r="141" spans="2:44" ht="12.75" customHeight="1">
+    <row r="141" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="9"/>
       <c r="C141" s="157"/>
       <c r="D141" s="10"/>
@@ -32529,7 +32607,7 @@
       <c r="AQ141" s="28"/>
       <c r="AR141" s="28"/>
     </row>
-    <row r="142" spans="2:44" ht="12.75" customHeight="1">
+    <row r="142" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="9"/>
       <c r="C142" s="157"/>
       <c r="D142" s="10"/>
@@ -32574,7 +32652,7 @@
       <c r="AQ142" s="28"/>
       <c r="AR142" s="28"/>
     </row>
-    <row r="143" spans="2:44" ht="45.75" customHeight="1">
+    <row r="143" spans="2:44" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="9"/>
       <c r="C143" s="157"/>
       <c r="D143" s="10"/>
@@ -32619,7 +32697,7 @@
       <c r="AQ143" s="28"/>
       <c r="AR143" s="28"/>
     </row>
-    <row r="144" spans="2:44" ht="12.75" customHeight="1">
+    <row r="144" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="9"/>
       <c r="C144" s="157"/>
       <c r="D144" s="10"/>
@@ -32664,7 +32742,7 @@
       <c r="AQ144" s="28"/>
       <c r="AR144" s="28"/>
     </row>
-    <row r="145" spans="2:44" ht="12.75" customHeight="1">
+    <row r="145" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="9"/>
       <c r="C145" s="157"/>
       <c r="D145" s="10"/>
@@ -32709,7 +32787,7 @@
       <c r="AQ145" s="28"/>
       <c r="AR145" s="28"/>
     </row>
-    <row r="146" spans="2:44" ht="48" customHeight="1">
+    <row r="146" spans="2:44" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="9"/>
       <c r="C146" s="157"/>
       <c r="D146" s="10"/>
@@ -32754,7 +32832,7 @@
       <c r="AQ146" s="28"/>
       <c r="AR146" s="28"/>
     </row>
-    <row r="147" spans="2:44" ht="19.5" customHeight="1">
+    <row r="147" spans="2:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="9"/>
       <c r="C147" s="157"/>
       <c r="D147" s="10"/>
@@ -32799,7 +32877,7 @@
       <c r="AQ147" s="28"/>
       <c r="AR147" s="28"/>
     </row>
-    <row r="148" spans="2:44" ht="12.75" customHeight="1">
+    <row r="148" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="9"/>
       <c r="C148" s="157"/>
       <c r="D148" s="10"/>
@@ -32844,7 +32922,7 @@
       <c r="AQ148" s="28"/>
       <c r="AR148" s="28"/>
     </row>
-    <row r="149" spans="2:44" ht="12.75" customHeight="1">
+    <row r="149" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="9"/>
       <c r="C149" s="157"/>
       <c r="D149" s="10"/>
@@ -32889,7 +32967,7 @@
       <c r="AQ149" s="28"/>
       <c r="AR149" s="28"/>
     </row>
-    <row r="150" spans="2:44" ht="12.75" customHeight="1">
+    <row r="150" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="9"/>
       <c r="C150" s="157"/>
       <c r="D150" s="10"/>
@@ -32934,7 +33012,7 @@
       <c r="AQ150" s="28"/>
       <c r="AR150" s="28"/>
     </row>
-    <row r="151" spans="2:44" ht="12.75" customHeight="1">
+    <row r="151" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="9"/>
       <c r="C151" s="157"/>
       <c r="D151" s="10"/>
@@ -32979,7 +33057,7 @@
       <c r="AQ151" s="28"/>
       <c r="AR151" s="28"/>
     </row>
-    <row r="152" spans="2:44" ht="12.75" customHeight="1">
+    <row r="152" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="9"/>
       <c r="C152" s="157"/>
       <c r="D152" s="10"/>
@@ -33024,7 +33102,7 @@
       <c r="AQ152" s="28"/>
       <c r="AR152" s="28"/>
     </row>
-    <row r="153" spans="2:44" ht="12.75" customHeight="1">
+    <row r="153" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="9"/>
       <c r="C153" s="157"/>
       <c r="D153" s="10"/>
@@ -33069,7 +33147,7 @@
       <c r="AQ153" s="28"/>
       <c r="AR153" s="28"/>
     </row>
-    <row r="154" spans="2:44" ht="12.75" customHeight="1">
+    <row r="154" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="157"/>
       <c r="D154" s="10"/>
@@ -33114,7 +33192,7 @@
       <c r="AQ154" s="28"/>
       <c r="AR154" s="28"/>
     </row>
-    <row r="155" spans="2:44" ht="12.75" customHeight="1">
+    <row r="155" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="9"/>
       <c r="C155" s="157"/>
       <c r="D155" s="10"/>
@@ -33159,7 +33237,7 @@
       <c r="AQ155" s="28"/>
       <c r="AR155" s="28"/>
     </row>
-    <row r="156" spans="2:44" ht="12.75" customHeight="1">
+    <row r="156" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="9"/>
       <c r="C156" s="157"/>
       <c r="D156" s="10"/>
@@ -33204,7 +33282,7 @@
       <c r="AQ156" s="28"/>
       <c r="AR156" s="28"/>
     </row>
-    <row r="157" spans="2:44" ht="12.75" customHeight="1">
+    <row r="157" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="9"/>
       <c r="C157" s="157"/>
       <c r="D157" s="10"/>
@@ -33249,7 +33327,7 @@
       <c r="AQ157" s="28"/>
       <c r="AR157" s="28"/>
     </row>
-    <row r="158" spans="2:44" ht="12.75" customHeight="1">
+    <row r="158" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="9"/>
       <c r="C158" s="157"/>
       <c r="D158" s="10"/>
@@ -33294,7 +33372,7 @@
       <c r="AQ158" s="28"/>
       <c r="AR158" s="28"/>
     </row>
-    <row r="159" spans="2:44" ht="12.75" customHeight="1">
+    <row r="159" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="9"/>
       <c r="C159" s="157"/>
       <c r="D159" s="10"/>
@@ -33339,7 +33417,7 @@
       <c r="AQ159" s="28"/>
       <c r="AR159" s="28"/>
     </row>
-    <row r="160" spans="2:44" ht="12.75" customHeight="1">
+    <row r="160" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="9"/>
       <c r="C160" s="157"/>
       <c r="D160" s="10"/>
@@ -33384,7 +33462,7 @@
       <c r="AQ160" s="28"/>
       <c r="AR160" s="28"/>
     </row>
-    <row r="161" spans="2:44" ht="12.75" customHeight="1">
+    <row r="161" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="9"/>
       <c r="C161" s="157"/>
       <c r="D161" s="10"/>
@@ -33429,7 +33507,7 @@
       <c r="AQ161" s="28"/>
       <c r="AR161" s="28"/>
     </row>
-    <row r="162" spans="2:44" ht="12.75" customHeight="1">
+    <row r="162" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="9"/>
       <c r="C162" s="157"/>
       <c r="D162" s="10"/>
@@ -33474,7 +33552,7 @@
       <c r="AQ162" s="28"/>
       <c r="AR162" s="28"/>
     </row>
-    <row r="163" spans="2:44" ht="12.75" customHeight="1">
+    <row r="163" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="9"/>
       <c r="C163" s="157"/>
       <c r="D163" s="10"/>
@@ -33519,7 +33597,7 @@
       <c r="AQ163" s="28"/>
       <c r="AR163" s="28"/>
     </row>
-    <row r="164" spans="2:44" ht="12.75" customHeight="1">
+    <row r="164" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="9"/>
       <c r="C164" s="157"/>
       <c r="D164" s="10"/>
@@ -33564,7 +33642,7 @@
       <c r="AQ164" s="28"/>
       <c r="AR164" s="28"/>
     </row>
-    <row r="165" spans="2:44" ht="12.75" customHeight="1">
+    <row r="165" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="9"/>
       <c r="C165" s="157"/>
       <c r="D165" s="10"/>
@@ -33609,7 +33687,7 @@
       <c r="AQ165" s="28"/>
       <c r="AR165" s="28"/>
     </row>
-    <row r="166" spans="2:44" ht="12.75" customHeight="1">
+    <row r="166" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="9"/>
       <c r="C166" s="157"/>
       <c r="D166" s="10"/>
@@ -33654,7 +33732,7 @@
       <c r="AQ166" s="28"/>
       <c r="AR166" s="28"/>
     </row>
-    <row r="167" spans="2:44" ht="12.75" customHeight="1">
+    <row r="167" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="9"/>
       <c r="C167" s="157"/>
       <c r="D167" s="10"/>
@@ -33699,7 +33777,7 @@
       <c r="AQ167" s="28"/>
       <c r="AR167" s="28"/>
     </row>
-    <row r="168" spans="2:44" ht="12.75" customHeight="1">
+    <row r="168" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
       <c r="C168" s="157"/>
       <c r="D168" s="10"/>
@@ -33744,7 +33822,7 @@
       <c r="AQ168" s="28"/>
       <c r="AR168" s="28"/>
     </row>
-    <row r="169" spans="2:44" ht="12.75" customHeight="1">
+    <row r="169" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="9"/>
       <c r="C169" s="157"/>
       <c r="D169" s="10"/>
@@ -33789,7 +33867,7 @@
       <c r="AQ169" s="28"/>
       <c r="AR169" s="28"/>
     </row>
-    <row r="170" spans="2:44" ht="12.75" customHeight="1">
+    <row r="170" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="9"/>
       <c r="C170" s="157"/>
       <c r="D170" s="10"/>
@@ -33834,7 +33912,7 @@
       <c r="AQ170" s="28"/>
       <c r="AR170" s="28"/>
     </row>
-    <row r="171" spans="2:44" ht="12.75" customHeight="1">
+    <row r="171" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="9"/>
       <c r="C171" s="157"/>
       <c r="D171" s="10"/>
@@ -33879,7 +33957,7 @@
       <c r="AQ171" s="28"/>
       <c r="AR171" s="28"/>
     </row>
-    <row r="172" spans="2:44" ht="12.75" customHeight="1">
+    <row r="172" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="9"/>
       <c r="C172" s="157"/>
       <c r="D172" s="10"/>
@@ -33924,7 +34002,7 @@
       <c r="AQ172" s="28"/>
       <c r="AR172" s="28"/>
     </row>
-    <row r="173" spans="2:44" ht="12.75" customHeight="1">
+    <row r="173" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="9"/>
       <c r="C173" s="157"/>
       <c r="D173" s="10"/>
@@ -33969,7 +34047,7 @@
       <c r="AQ173" s="28"/>
       <c r="AR173" s="28"/>
     </row>
-    <row r="174" spans="2:44" ht="12.75" customHeight="1">
+    <row r="174" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="9"/>
       <c r="C174" s="157"/>
       <c r="D174" s="10"/>
@@ -34014,7 +34092,7 @@
       <c r="AQ174" s="28"/>
       <c r="AR174" s="28"/>
     </row>
-    <row r="175" spans="2:44" ht="12.75" customHeight="1">
+    <row r="175" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="9"/>
       <c r="C175" s="157"/>
       <c r="D175" s="10"/>
@@ -34059,7 +34137,7 @@
       <c r="AQ175" s="28"/>
       <c r="AR175" s="28"/>
     </row>
-    <row r="176" spans="2:44" ht="12.75" customHeight="1">
+    <row r="176" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="9"/>
       <c r="C176" s="157"/>
       <c r="D176" s="10"/>
@@ -34104,7 +34182,7 @@
       <c r="AQ176" s="28"/>
       <c r="AR176" s="28"/>
     </row>
-    <row r="177" spans="2:44" ht="12.75" customHeight="1">
+    <row r="177" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="9"/>
       <c r="C177" s="157"/>
       <c r="D177" s="10"/>
@@ -34149,7 +34227,7 @@
       <c r="AQ177" s="28"/>
       <c r="AR177" s="28"/>
     </row>
-    <row r="178" spans="2:44" ht="12.75" customHeight="1">
+    <row r="178" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="9"/>
       <c r="C178" s="157"/>
       <c r="D178" s="10"/>
@@ -34194,75 +34272,75 @@
       <c r="AQ178" s="28"/>
       <c r="AR178" s="28"/>
     </row>
-    <row r="179" spans="2:44" ht="12.75" customHeight="1">
+    <row r="179" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ179" s="28"/>
       <c r="AR179" s="28"/>
     </row>
-    <row r="180" spans="2:44" ht="12.75" customHeight="1">
+    <row r="180" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ180" s="28"/>
       <c r="AR180" s="28"/>
     </row>
-    <row r="181" spans="2:44" ht="12.75" customHeight="1">
+    <row r="181" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ181" s="28"/>
       <c r="AR181" s="28"/>
     </row>
-    <row r="182" spans="2:44" ht="12.75" customHeight="1">
+    <row r="182" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ182" s="28"/>
       <c r="AR182" s="28"/>
     </row>
-    <row r="183" spans="2:44" ht="12.75" customHeight="1">
+    <row r="183" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ183" s="28"/>
       <c r="AR183" s="28"/>
     </row>
-    <row r="184" spans="2:44" ht="12.75" customHeight="1">
+    <row r="184" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ184" s="28"/>
       <c r="AR184" s="28"/>
     </row>
-    <row r="185" spans="2:44" ht="12.75" customHeight="1">
+    <row r="185" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ185" s="28"/>
       <c r="AR185" s="28"/>
     </row>
-    <row r="186" spans="2:44" ht="12.75" customHeight="1">
+    <row r="186" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ186" s="28"/>
       <c r="AR186" s="28"/>
     </row>
-    <row r="187" spans="2:44" ht="12.75" customHeight="1">
+    <row r="187" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ187" s="28"/>
       <c r="AR187" s="28"/>
     </row>
-    <row r="188" spans="2:44" ht="12.75" customHeight="1">
+    <row r="188" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ188" s="28"/>
       <c r="AR188" s="28"/>
     </row>
-    <row r="189" spans="2:44" ht="12.75" customHeight="1">
+    <row r="189" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ189" s="28"/>
       <c r="AR189" s="28"/>
     </row>
-    <row r="190" spans="2:44" ht="12.75" customHeight="1">
+    <row r="190" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ190" s="28"/>
       <c r="AR190" s="28"/>
     </row>
-    <row r="191" spans="2:44" ht="12.75" customHeight="1">
+    <row r="191" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ191" s="28"/>
       <c r="AR191" s="28"/>
     </row>
-    <row r="192" spans="2:44" ht="12.75" customHeight="1">
+    <row r="192" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ192" s="28"/>
       <c r="AR192" s="28"/>
     </row>
-    <row r="193" spans="43:44" ht="12.75" customHeight="1">
+    <row r="193" spans="43:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ193" s="28"/>
       <c r="AR193" s="28"/>
     </row>
-    <row r="194" spans="43:44" ht="12.75" customHeight="1">
+    <row r="194" spans="43:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ194" s="28"/>
       <c r="AR194" s="28"/>
     </row>
-    <row r="195" spans="43:44" ht="12.75" customHeight="1">
+    <row r="195" spans="43:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ195" s="28"/>
       <c r="AR195" s="28"/>
     </row>
-    <row r="196" spans="43:44" ht="12.75" customHeight="1">
+    <row r="196" spans="43:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ196" s="28"/>
       <c r="AR196" s="28"/>
     </row>
@@ -34401,77 +34479,77 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="95" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="95" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="19">
         <v>10</v>
       </c>
@@ -34489,25 +34567,25 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="12" width="37.28515625" customWidth="1"/>
+    <col min="3" max="12" width="37.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E3" s="174" t="s">
         <v>176</v>
       </c>
       <c r="F3" s="174"/>
       <c r="G3" s="174"/>
     </row>
-    <row r="5" spans="3:12" ht="18.600000000000001">
+    <row r="5" spans="3:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="J5" s="175" t="s">
         <v>177</v>
       </c>
       <c r="K5" s="176"/>
     </row>
-    <row r="6" spans="3:12" ht="18.600000000000001">
+    <row r="6" spans="3:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C6" s="30" t="s">
         <v>178</v>
       </c>
@@ -34539,7 +34617,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="3:12">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C7" s="177" t="s">
         <v>188</v>
       </c>
@@ -34553,7 +34631,7 @@
       <c r="K7" s="79"/>
       <c r="L7" s="80"/>
     </row>
-    <row r="8" spans="3:12">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C8" s="178"/>
       <c r="D8" s="79"/>
       <c r="E8" s="79"/>
@@ -34565,7 +34643,7 @@
       <c r="K8" s="79"/>
       <c r="L8" s="33"/>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C9" s="178"/>
       <c r="D9" s="79"/>
       <c r="E9" s="79"/>
@@ -34577,7 +34655,7 @@
       <c r="K9" s="79"/>
       <c r="L9" s="81"/>
     </row>
-    <row r="10" spans="3:12">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C10" s="178"/>
       <c r="D10" s="79"/>
       <c r="E10" s="79"/>
@@ -34589,7 +34667,7 @@
       <c r="K10" s="79"/>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" spans="3:12">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C11" s="178"/>
       <c r="D11" s="79"/>
       <c r="E11" s="79"/>
@@ -34601,7 +34679,7 @@
       <c r="K11" s="79"/>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="3:12">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C12" s="178"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -34613,7 +34691,7 @@
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="3:12">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C13" s="178"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -34625,7 +34703,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="3:12">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C14" s="178"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -34637,7 +34715,7 @@
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="3:12">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C15" s="178"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -34649,7 +34727,7 @@
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
     </row>
-    <row r="16" spans="3:12">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C16" s="178"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -34661,7 +34739,7 @@
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C17" s="178"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -34673,7 +34751,7 @@
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C18" s="178"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -34685,7 +34763,7 @@
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="178"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -34697,7 +34775,7 @@
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
     </row>
-    <row r="23" spans="3:12">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>189</v>
       </c>
@@ -34716,91 +34794,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED98BEE-9FDE-48A4-86A8-C4DE755C63D7}">
   <dimension ref="B1:BN82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="F9" sqref="F9:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="16" width="9.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.28515625" customWidth="1"/>
-    <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.7109375" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.5703125" customWidth="1"/>
-    <col min="36" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.7109375" customWidth="1"/>
-    <col min="39" max="39" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" customWidth="1"/>
-    <col min="44" max="44" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.7109375" customWidth="1"/>
-    <col min="47" max="47" width="19.42578125" customWidth="1"/>
-    <col min="48" max="48" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.5703125" customWidth="1"/>
-    <col min="52" max="52" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.7109375" customWidth="1"/>
-    <col min="55" max="55" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.28515625" customWidth="1"/>
-    <col min="60" max="60" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.7109375" customWidth="1"/>
-    <col min="63" max="63" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.140625" customWidth="1"/>
-    <col min="68" max="68" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="13.7109375" customWidth="1"/>
-    <col min="71" max="71" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" customWidth="1"/>
+    <col min="9" max="10" width="13.26953125" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1796875" customWidth="1"/>
+    <col min="14" max="14" width="15.7265625" customWidth="1"/>
+    <col min="15" max="16" width="9.453125" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.26953125" customWidth="1"/>
+    <col min="20" max="20" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7265625" customWidth="1"/>
+    <col min="23" max="23" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.26953125" customWidth="1"/>
+    <col min="28" max="28" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.7265625" customWidth="1"/>
+    <col min="31" max="31" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.54296875" customWidth="1"/>
+    <col min="36" max="36" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.7265625" customWidth="1"/>
+    <col min="39" max="39" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.81640625" customWidth="1"/>
+    <col min="44" max="44" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.7265625" customWidth="1"/>
+    <col min="47" max="47" width="19.453125" customWidth="1"/>
+    <col min="48" max="48" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.54296875" customWidth="1"/>
+    <col min="52" max="52" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.7265625" customWidth="1"/>
+    <col min="55" max="55" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.26953125" customWidth="1"/>
+    <col min="60" max="60" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.7265625" customWidth="1"/>
+    <col min="63" max="63" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.1796875" customWidth="1"/>
+    <col min="68" max="68" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="13.7265625" customWidth="1"/>
+    <col min="71" max="71" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14"/>
-    <row r="2" spans="2:14" ht="23.25">
+    <row r="1" spans="2:14" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="65" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="2:14"/>
-    <row r="4" spans="2:14">
+    <row r="3" spans="2:14" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C4" s="22" t="s">
         <v>191</v>
       </c>
@@ -34809,10 +34887,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C7" s="17"/>
       <c r="D7" s="20" t="s">
         <v>20</v>
@@ -34831,7 +34909,7 @@
       </c>
       <c r="J7" s="29"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C8" s="92" t="s">
         <v>196</v>
       </c>
@@ -34856,7 +34934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1">
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D9" s="146">
         <f>D8/$D$4</f>
         <v>0.55000000000000004</v>
@@ -34878,20 +34956,20 @@
         <v>0.31666666666666665</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="18.75">
+    <row r="10" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C10" s="64" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C11" s="24" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C13" s="20" t="s">
         <v>199</v>
       </c>
@@ -34929,7 +35007,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C14" s="18" t="s">
         <v>210</v>
       </c>
@@ -34942,7 +35020,7 @@
         <v>38</v>
       </c>
       <c r="F14" s="34">
-        <f>SUM(D14:E14)</f>
+        <f t="shared" ref="F14:F20" si="0">SUM(D14:E14)</f>
         <v>48</v>
       </c>
       <c r="G14" s="19">
@@ -34954,31 +35032,31 @@
         <v>1</v>
       </c>
       <c r="I14" s="34">
-        <f>F14-G14</f>
+        <f t="shared" ref="I14:I20" si="1">F14-G14</f>
         <v>39</v>
       </c>
       <c r="J14" s="34">
-        <f>F14-E14-G14</f>
+        <f t="shared" ref="J14:J20" si="2">F14-E14-G14</f>
         <v>1</v>
       </c>
       <c r="K14" s="141">
-        <f>D14/F14</f>
+        <f t="shared" ref="K14:K20" si="3">D14/F14</f>
         <v>0.20833333333333334</v>
       </c>
       <c r="L14" s="141">
-        <f>G14/F14</f>
+        <f t="shared" ref="L14:L20" si="4">G14/F14</f>
         <v>0.1875</v>
       </c>
       <c r="M14" s="141">
-        <f>I14/F14</f>
+        <f t="shared" ref="M14:M20" si="5">I14/F14</f>
         <v>0.8125</v>
       </c>
       <c r="N14" s="141">
-        <f>G14/$G$22</f>
+        <f t="shared" ref="N14:N20" si="6">G14/$G$22</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C15" s="18" t="s">
         <v>211</v>
       </c>
@@ -34991,7 +35069,7 @@
         <v>42</v>
       </c>
       <c r="F15" s="34">
-        <f>SUM(D15:E15)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="G15" s="19">
@@ -35003,31 +35081,31 @@
         <v>0</v>
       </c>
       <c r="I15" s="34">
-        <f>F15-G15</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="J15" s="34">
-        <f>F15-E15-G15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K15" s="141">
-        <f>D15/F15</f>
+        <f t="shared" si="3"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="L15" s="141">
-        <f>G15/F15</f>
+        <f t="shared" si="4"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="M15" s="141">
-        <f>I15/F15</f>
+        <f t="shared" si="5"/>
         <v>0.93333333333333335</v>
       </c>
       <c r="N15" s="141">
-        <f>G15/$G$22</f>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C16" s="18" t="s">
         <v>2</v>
       </c>
@@ -35040,7 +35118,7 @@
         <v>31</v>
       </c>
       <c r="F16" s="34">
-        <f>SUM(D16:E16)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="G16" s="19">
@@ -35052,31 +35130,31 @@
         <v>28</v>
       </c>
       <c r="I16" s="34">
-        <f>F16-G16</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="J16" s="34">
-        <f>F16-E16-G16</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="K16" s="141">
-        <f>D16/F16</f>
+        <f t="shared" si="3"/>
         <v>0.48333333333333334</v>
       </c>
       <c r="L16" s="141">
-        <f>G16/F16</f>
+        <f t="shared" si="4"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="M16" s="141">
-        <f>I16/F16</f>
+        <f t="shared" si="5"/>
         <v>0.96666666666666667</v>
       </c>
       <c r="N16" s="141">
-        <f>G16/$G$22</f>
+        <f t="shared" si="6"/>
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C17" s="18" t="s">
         <v>212</v>
       </c>
@@ -35089,7 +35167,7 @@
         <v>44</v>
       </c>
       <c r="F17" s="34">
-        <f>SUM(D17:E17)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="G17" s="19">
@@ -35101,31 +35179,31 @@
         <v>0</v>
       </c>
       <c r="I17" s="34">
-        <f>F17-G17</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="J17" s="34">
-        <f>F17-E17-G17</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K17" s="141">
-        <f>D17/F17</f>
+        <f t="shared" si="3"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="L17" s="141">
-        <f>G17/F17</f>
+        <f t="shared" si="4"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="M17" s="141">
-        <f>I17/F17</f>
+        <f t="shared" si="5"/>
         <v>0.97777777777777775</v>
       </c>
       <c r="N17" s="141">
-        <f>G17/$G$22</f>
+        <f t="shared" si="6"/>
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C18" s="18" t="s">
         <v>4</v>
       </c>
@@ -35138,7 +35216,7 @@
         <v>49</v>
       </c>
       <c r="F18" s="34">
-        <f>SUM(D18:E18)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="G18" s="19">
@@ -35150,31 +35228,31 @@
         <v>0</v>
       </c>
       <c r="I18" s="34">
-        <f>F18-G18</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="J18" s="34">
-        <f>F18-E18-G18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K18" s="141">
-        <f>D18/F18</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L18" s="141">
-        <f>G18/F18</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M18" s="141">
-        <f>I18/F18</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N18" s="141">
-        <f>G18/$G$22</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C19" s="18" t="s">
         <v>3</v>
       </c>
@@ -35187,7 +35265,7 @@
         <v>49</v>
       </c>
       <c r="F19" s="34">
-        <f>SUM(D19:E19)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="G19" s="19">
@@ -35199,31 +35277,31 @@
         <v>0</v>
       </c>
       <c r="I19" s="34">
-        <f>F19-G19</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="J19" s="34">
-        <f>F19-E19-G19</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K19" s="141">
-        <f>D19/F19</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L19" s="141">
-        <f>G19/F19</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M19" s="141">
-        <f>I19/F19</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N19" s="141">
-        <f>G19/$G$22</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C20" s="18" t="s">
         <v>213</v>
       </c>
@@ -35236,7 +35314,7 @@
         <v>60</v>
       </c>
       <c r="F20" s="34">
-        <f>SUM(D20:E20)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="G20" s="19">
@@ -35248,34 +35326,34 @@
         <v>0</v>
       </c>
       <c r="I20" s="34">
-        <f>F20-G20</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="J20" s="34">
-        <f>F20-E20-G20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K20" s="141">
-        <f>D20/F20</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L20" s="141">
-        <f>G20/F20</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M20" s="141">
-        <f>I20/F20</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N20" s="141">
-        <f>G20/$G$22</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C22" s="74" t="s">
         <v>214</v>
       </c>
@@ -35284,23 +35362,23 @@
         <v>43</v>
       </c>
       <c r="E22" s="75">
-        <f t="shared" ref="E22:I22" si="0">SUM(E14:E20)</f>
+        <f t="shared" ref="E22:I22" si="7">SUM(E14:E20)</f>
         <v>313</v>
       </c>
       <c r="F22" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>356</v>
       </c>
       <c r="G22" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="H22" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="I22" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>341</v>
       </c>
       <c r="J22" s="145"/>
@@ -35308,13 +35386,13 @@
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="3:14"/>
-    <row r="24" spans="3:14" ht="18.75">
+    <row r="23" spans="3:14" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="3:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C24" s="64" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C25" s="85" t="s">
         <v>199</v>
       </c>
@@ -35334,7 +35412,7 @@
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C26" s="88" t="s">
         <v>2</v>
       </c>
@@ -35347,12 +35425,12 @@
         <v>0.45</v>
       </c>
       <c r="F26" s="89">
-        <f>IFERROR((D26-E26)/D26,0)</f>
+        <f t="shared" ref="F26:F33" si="8">IFERROR((D26-E26)/D26,0)</f>
         <v>0.39999999999999997</v>
       </c>
       <c r="H26" s="93"/>
     </row>
-    <row r="27" spans="3:14">
+    <row r="27" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C27" s="88" t="s">
         <v>3</v>
       </c>
@@ -35365,12 +35443,12 @@
         <v>0</v>
       </c>
       <c r="F27" s="89">
-        <f>IFERROR((D27-E27)/D27,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H27" s="93"/>
     </row>
-    <row r="28" spans="3:14">
+    <row r="28" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C28" s="88" t="s">
         <v>4</v>
       </c>
@@ -35383,12 +35461,12 @@
         <v>0</v>
       </c>
       <c r="F28" s="89">
-        <f>IFERROR((D28-E28)/D28,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="3:14">
+    <row r="29" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C29" s="88" t="s">
         <v>210</v>
       </c>
@@ -35401,12 +35479,12 @@
         <v>13.3</v>
       </c>
       <c r="F29" s="89">
-        <f>IFERROR((D29-E29)/D29,0)</f>
+        <f t="shared" si="8"/>
         <v>0.45603271983640076</v>
       </c>
       <c r="H29" s="93"/>
     </row>
-    <row r="30" spans="3:14">
+    <row r="30" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C30" s="88" t="s">
         <v>212</v>
       </c>
@@ -35419,12 +35497,12 @@
         <v>0</v>
       </c>
       <c r="F30" s="89">
-        <f>IFERROR((D30-E30)/D30,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H30" s="93"/>
     </row>
-    <row r="31" spans="3:14">
+    <row r="31" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C31" s="88" t="s">
         <v>211</v>
       </c>
@@ -35437,12 +35515,12 @@
         <v>11</v>
       </c>
       <c r="F31" s="89">
-        <f>IFERROR((D31-E31)/D31,0)</f>
+        <f t="shared" si="8"/>
         <v>-0.1</v>
       </c>
       <c r="H31" s="93"/>
     </row>
-    <row r="32" spans="3:14">
+    <row r="32" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C32" s="90" t="s">
         <v>213</v>
       </c>
@@ -35455,12 +35533,12 @@
         <v>0</v>
       </c>
       <c r="F32" s="91">
-        <f ca="1">IFERROR((D32-E32)/D32,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="H32" s="93"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C33" s="74" t="s">
         <v>219</v>
       </c>
@@ -35469,11 +35547,11 @@
         <v>35.200000000000003</v>
       </c>
       <c r="E33" s="75">
-        <f t="shared" ref="E33" ca="1" si="1">SUM(E26:E32)</f>
+        <f t="shared" ref="E33" ca="1" si="9">SUM(E26:E32)</f>
         <v>24.75</v>
       </c>
       <c r="F33" s="77">
-        <f ca="1">IFERROR((D33-E33)/D33,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0.29687500000000006</v>
       </c>
       <c r="H33" s="93"/>
@@ -35483,46 +35561,46 @@
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
     </row>
-    <row r="34" spans="2:13"/>
-    <row r="35" spans="2:13"/>
-    <row r="36" spans="2:13"/>
-    <row r="37" spans="2:13" ht="23.25">
+    <row r="34" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="65" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="23.25">
+    <row r="38" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="65"/>
     </row>
-    <row r="39" spans="2:13" ht="23.25">
+    <row r="39" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="65"/>
     </row>
-    <row r="40" spans="2:13" ht="23.25">
+    <row r="40" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="65"/>
     </row>
-    <row r="41" spans="2:13" ht="23.25">
+    <row r="41" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="65"/>
     </row>
-    <row r="42" spans="2:13" ht="23.25">
+    <row r="42" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="65"/>
     </row>
-    <row r="43" spans="2:13" ht="23.25">
+    <row r="43" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="65"/>
     </row>
-    <row r="44" spans="2:13" ht="23.25">
+    <row r="44" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="65"/>
     </row>
-    <row r="45" spans="2:13" ht="23.25">
+    <row r="45" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="65"/>
     </row>
-    <row r="46" spans="2:13" ht="23.25">
+    <row r="46" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="65"/>
     </row>
-    <row r="47" spans="2:13" ht="23.25">
+    <row r="47" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="65"/>
     </row>
-    <row r="48" spans="2:13"/>
-    <row r="49" spans="3:66" ht="14.45" customHeight="1">
+    <row r="48" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="3:66" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D49" s="188" t="s">
         <v>221</v>
       </c>
@@ -35603,7 +35681,7 @@
       <c r="BM49" s="186"/>
       <c r="BN49" s="187"/>
     </row>
-    <row r="50" spans="3:66">
+    <row r="50" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C50" s="20" t="s">
         <v>10</v>
       </c>
@@ -35797,7 +35875,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="51" spans="3:66">
+    <row r="51" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C51" s="18" t="str" cm="1">
         <f t="array" ref="C51:C59">_xlfn.UNIQUE(AdopcionIA!$C$6:$C$507)</f>
         <v>SP15</v>
@@ -35811,7 +35889,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="56">
-        <f>IFERROR((D51-E51)/D51,0)</f>
+        <f t="shared" ref="F51:F58" si="10">IFERROR((D51-E51)/D51,0)</f>
         <v>0</v>
       </c>
       <c r="G51" s="43">
@@ -35839,7 +35917,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="56">
-        <f>IFERROR((K51-L51)/K51,0)</f>
+        <f t="shared" ref="M51:M58" si="11">IFERROR((K51-L51)/K51,0)</f>
         <v>0</v>
       </c>
       <c r="N51" s="21">
@@ -35871,7 +35949,7 @@
         <v>0</v>
       </c>
       <c r="U51" s="57">
-        <f t="shared" ref="U51:U58" si="2">IFERROR((S51-T51)/S51,0)</f>
+        <f t="shared" ref="U51:U58" si="12">IFERROR((S51-T51)/S51,0)</f>
         <v>0</v>
       </c>
       <c r="V51" s="46">
@@ -36055,7 +36133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:66">
+    <row r="52" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C52" s="18" t="str">
         <v>SP16</v>
       </c>
@@ -36068,7 +36146,7 @@
         <v>11</v>
       </c>
       <c r="F52" s="56">
-        <f>IFERROR((D52-E52)/D52,0)</f>
+        <f t="shared" si="10"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G52" s="43">
@@ -36096,7 +36174,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="56">
-        <f>IFERROR((K52-L52)/K52,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N52" s="21">
@@ -36128,7 +36206,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V52" s="46">
@@ -36160,7 +36238,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="56">
-        <f t="shared" ref="AC52:AC55" si="3">IFERROR((AA52-AB52)/AA52,0)</f>
+        <f t="shared" ref="AC52:AC55" si="13">IFERROR((AA52-AB52)/AA52,0)</f>
         <v>0</v>
       </c>
       <c r="AD52" s="51">
@@ -36192,7 +36270,7 @@
         <v>3</v>
       </c>
       <c r="AK52" s="56">
-        <f t="shared" ref="AK52:AK55" si="4">IFERROR((AI52-AJ52)/AI52,0)</f>
+        <f t="shared" ref="AK52:AK55" si="14">IFERROR((AI52-AJ52)/AI52,0)</f>
         <v>0.625</v>
       </c>
       <c r="AL52" s="55">
@@ -36224,7 +36302,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="56">
-        <f t="shared" ref="AS52:AS55" si="5">IFERROR((AQ52-AR52)/AQ52,0)</f>
+        <f t="shared" ref="AS52:AS55" si="15">IFERROR((AQ52-AR52)/AQ52,0)</f>
         <v>0</v>
       </c>
       <c r="AT52" s="63">
@@ -36256,7 +36334,7 @@
         <v>8</v>
       </c>
       <c r="BA52" s="56">
-        <f t="shared" ref="BA52:BA55" si="6">IFERROR((AY52-AZ52)/AY52,0)</f>
+        <f t="shared" ref="BA52:BA55" si="16">IFERROR((AY52-AZ52)/AY52,0)</f>
         <v>-1</v>
       </c>
       <c r="BB52" s="69">
@@ -36288,7 +36366,7 @@
         <v>0</v>
       </c>
       <c r="BI52" s="56">
-        <f t="shared" ref="BI52:BI55" si="7">IFERROR((BG52-BH52)/BG52,0)</f>
+        <f t="shared" ref="BI52:BI55" si="17">IFERROR((BG52-BH52)/BG52,0)</f>
         <v>0</v>
       </c>
       <c r="BJ52" s="73">
@@ -36312,7 +36390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:66">
+    <row r="53" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C53" s="18" t="str">
         <v>SP17</v>
       </c>
@@ -36325,7 +36403,7 @@
         <v>2</v>
       </c>
       <c r="F53" s="56">
-        <f>IFERROR((D53-E53)/D53,0)</f>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="G53" s="43">
@@ -36353,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="56">
-        <f>IFERROR((K53-L53)/K53,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N53" s="21">
@@ -36385,7 +36463,7 @@
         <v>0</v>
       </c>
       <c r="U53" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V53" s="46">
@@ -36417,7 +36495,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD53" s="51">
@@ -36449,7 +36527,7 @@
         <v>2</v>
       </c>
       <c r="AK53" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="AL53" s="55">
@@ -36481,7 +36559,7 @@
         <v>0</v>
       </c>
       <c r="AS53" s="56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT53" s="63">
@@ -36513,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="BA53" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB53" s="69">
@@ -36545,7 +36623,7 @@
         <v>0</v>
       </c>
       <c r="BI53" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BJ53" s="73">
@@ -36569,7 +36647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:66">
+    <row r="54" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C54" s="18" t="str">
         <v>SP18</v>
       </c>
@@ -36582,7 +36660,7 @@
         <v>6.75</v>
       </c>
       <c r="F54" s="56">
-        <f>IFERROR((D54-E54)/D54,0)</f>
+        <f t="shared" si="10"/>
         <v>-8.8709677419354802E-2</v>
       </c>
       <c r="G54" s="43">
@@ -36610,7 +36688,7 @@
         <v>0.45</v>
       </c>
       <c r="M54" s="56">
-        <f>IFERROR((K54-L54)/K54,0)</f>
+        <f t="shared" si="11"/>
         <v>0.39999999999999997</v>
       </c>
       <c r="N54" s="21">
@@ -36642,7 +36720,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V54" s="46">
@@ -36674,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD54" s="51">
@@ -36706,7 +36784,7 @@
         <v>5.3</v>
       </c>
       <c r="AK54" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-0.53623188405797084</v>
       </c>
       <c r="AL54" s="55">
@@ -36738,7 +36816,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT54" s="63">
@@ -36770,7 +36848,7 @@
         <v>1</v>
       </c>
       <c r="BA54" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="BB54" s="69">
@@ -36802,7 +36880,7 @@
         <v>0</v>
       </c>
       <c r="BI54" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BJ54" s="73">
@@ -36826,7 +36904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:66">
+    <row r="55" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C55" s="18" t="str">
         <v>SP19</v>
       </c>
@@ -36839,7 +36917,7 @@
         <v>2</v>
       </c>
       <c r="F55" s="56">
-        <f>IFERROR((D55-E55)/D55,0)</f>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="G55" s="43">
@@ -36867,7 +36945,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="59">
-        <f>IFERROR((K55-L55)/K55,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N55" s="21">
@@ -36899,7 +36977,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V55" s="46">
@@ -36931,7 +37009,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD55" s="51">
@@ -36963,7 +37041,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL55" s="55">
@@ -36995,7 +37073,7 @@
         <v>0</v>
       </c>
       <c r="AS55" s="56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT55" s="63">
@@ -37027,7 +37105,7 @@
         <v>2</v>
       </c>
       <c r="BA55" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="BB55" s="69">
@@ -37059,7 +37137,7 @@
         <v>0</v>
       </c>
       <c r="BI55" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BJ55" s="73">
@@ -37083,7 +37161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:66">
+    <row r="56" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C56" s="18" t="str">
         <v>SP20</v>
       </c>
@@ -37096,7 +37174,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="56">
-        <f>IFERROR((D56-E56)/D56,0)</f>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="G56" s="43">
@@ -37124,7 +37202,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="59">
-        <f>IFERROR((K56-L56)/K56,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N56" s="21">
@@ -37156,7 +37234,7 @@
         <v>0</v>
       </c>
       <c r="U56" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V56" s="46">
@@ -37188,7 +37266,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="56">
-        <f t="shared" ref="AC56:AC58" si="8">IFERROR((AA56-AB56)/AA56,0)</f>
+        <f t="shared" ref="AC56:AC58" si="18">IFERROR((AA56-AB56)/AA56,0)</f>
         <v>0</v>
       </c>
       <c r="AD56" s="51">
@@ -37220,7 +37298,7 @@
         <v>1</v>
       </c>
       <c r="AK56" s="56">
-        <f t="shared" ref="AK56:AK58" si="9">IFERROR((AI56-AJ56)/AI56,0)</f>
+        <f t="shared" ref="AK56:AK58" si="19">IFERROR((AI56-AJ56)/AI56,0)</f>
         <v>0.5</v>
       </c>
       <c r="AL56" s="55">
@@ -37252,7 +37330,7 @@
         <v>0</v>
       </c>
       <c r="AS56" s="56">
-        <f t="shared" ref="AS56:AS58" si="10">IFERROR((AQ56-AR56)/AQ56,0)</f>
+        <f t="shared" ref="AS56:AS58" si="20">IFERROR((AQ56-AR56)/AQ56,0)</f>
         <v>0</v>
       </c>
       <c r="AT56" s="63">
@@ -37284,7 +37362,7 @@
         <v>0</v>
       </c>
       <c r="BA56" s="56">
-        <f t="shared" ref="BA56:BA58" si="11">IFERROR((AY56-AZ56)/AY56,0)</f>
+        <f t="shared" ref="BA56:BA58" si="21">IFERROR((AY56-AZ56)/AY56,0)</f>
         <v>0</v>
       </c>
       <c r="BB56" s="69">
@@ -37316,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="BI56" s="56">
-        <f t="shared" ref="BI56:BI58" si="12">IFERROR((BG56-BH56)/BG56,0)</f>
+        <f t="shared" ref="BI56:BI58" si="22">IFERROR((BG56-BH56)/BG56,0)</f>
         <v>0</v>
       </c>
       <c r="BJ56" s="73">
@@ -37340,7 +37418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:66">
+    <row r="57" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C57" s="18" t="str">
         <v>SP21</v>
       </c>
@@ -37353,7 +37431,7 @@
         <v>6</v>
       </c>
       <c r="F57" s="56">
-        <f>IFERROR((D57-E57)/D57,0)</f>
+        <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
       <c r="G57" s="43">
@@ -37381,7 +37459,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="59">
-        <f>IFERROR((K57-L57)/K57,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N57" s="21">
@@ -37413,7 +37491,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="58">
-        <f t="shared" ref="U57" si="13">IFERROR((S57-T57)/S57,0)</f>
+        <f t="shared" ref="U57" si="23">IFERROR((S57-T57)/S57,0)</f>
         <v>0</v>
       </c>
       <c r="V57" s="46">
@@ -37445,7 +37523,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="56">
-        <f t="shared" ref="AC57" si="14">IFERROR((AA57-AB57)/AA57,0)</f>
+        <f t="shared" ref="AC57" si="24">IFERROR((AA57-AB57)/AA57,0)</f>
         <v>0</v>
       </c>
       <c r="AD57" s="51">
@@ -37477,7 +37555,7 @@
         <v>6</v>
       </c>
       <c r="AK57" s="56">
-        <f t="shared" ref="AK57" si="15">IFERROR((AI57-AJ57)/AI57,0)</f>
+        <f t="shared" ref="AK57" si="25">IFERROR((AI57-AJ57)/AI57,0)</f>
         <v>0.25</v>
       </c>
       <c r="AL57" s="55">
@@ -37509,7 +37587,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="56">
-        <f t="shared" ref="AS57" si="16">IFERROR((AQ57-AR57)/AQ57,0)</f>
+        <f t="shared" ref="AS57" si="26">IFERROR((AQ57-AR57)/AQ57,0)</f>
         <v>0</v>
       </c>
       <c r="AT57" s="63">
@@ -37541,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="BA57" s="56">
-        <f t="shared" ref="BA57" si="17">IFERROR((AY57-AZ57)/AY57,0)</f>
+        <f t="shared" ref="BA57" si="27">IFERROR((AY57-AZ57)/AY57,0)</f>
         <v>0</v>
       </c>
       <c r="BB57" s="69">
@@ -37573,7 +37651,7 @@
         <v>0</v>
       </c>
       <c r="BI57" s="56">
-        <f t="shared" ref="BI57" si="18">IFERROR((BG57-BH57)/BG57,0)</f>
+        <f t="shared" ref="BI57" si="28">IFERROR((BG57-BH57)/BG57,0)</f>
         <v>0</v>
       </c>
       <c r="BJ57" s="73">
@@ -37597,7 +37675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:66" ht="15" customHeight="1">
+    <row r="58" spans="3:66" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C58" s="18" t="str">
         <v>SP22</v>
       </c>
@@ -37610,7 +37688,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="56">
-        <f>IFERROR((D58-E58)/D58,0)</f>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="G58" s="43">
@@ -37638,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="56">
-        <f>IFERROR((K58-L58)/K58,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N58" s="21">
@@ -37670,7 +37748,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V58" s="46">
@@ -37702,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD58" s="51">
@@ -37734,7 +37812,7 @@
         <v>1</v>
       </c>
       <c r="AK58" s="56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
       <c r="AL58" s="55">
@@ -37766,7 +37844,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AT58" s="63">
@@ -37798,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="BA58" s="56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BB58" s="69">
@@ -37830,7 +37908,7 @@
         <v>0</v>
       </c>
       <c r="BI58" s="56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BJ58" s="73">
@@ -37854,15 +37932,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:66" ht="15" customHeight="1">
+    <row r="59" spans="3:66" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:66">
+    <row r="60" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C60" s="17"/>
     </row>
-    <row r="61" spans="3:66">
+    <row r="61" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
       <c r="E61" s="29"/>
@@ -37875,36 +37953,36 @@
       <c r="L61" s="29"/>
       <c r="M61" s="29"/>
     </row>
-    <row r="62" spans="3:66">
+    <row r="62" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C62" s="17"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
     </row>
-    <row r="63" spans="3:66">
+    <row r="63" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C63" s="17"/>
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
     </row>
-    <row r="64" spans="3:66">
+    <row r="64" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C64" s="17"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
     </row>
-    <row r="65" spans="3:13">
+    <row r="65" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C65" s="17"/>
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
     </row>
-    <row r="66" spans="3:13">
+    <row r="66" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C66" s="17"/>
     </row>
-    <row r="67" spans="3:13">
+    <row r="67" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C67" s="17"/>
     </row>
-    <row r="69" spans="3:13">
+    <row r="69" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C69" s="17"/>
     </row>
-    <row r="70" spans="3:13">
+    <row r="70" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
       <c r="E70" s="29"/>
@@ -37917,39 +37995,39 @@
       <c r="L70" s="29"/>
       <c r="M70" s="29"/>
     </row>
-    <row r="71" spans="3:13">
+    <row r="71" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C71" s="17"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
     </row>
-    <row r="72" spans="3:13">
+    <row r="72" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C72" s="17"/>
       <c r="G72" s="35"/>
       <c r="H72" s="35"/>
     </row>
-    <row r="73" spans="3:13">
+    <row r="73" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C73" s="17"/>
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
     </row>
-    <row r="74" spans="3:13">
+    <row r="74" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C74" s="17"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
     </row>
-    <row r="75" spans="3:13">
+    <row r="75" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C75" s="17"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
     </row>
-    <row r="76" spans="3:13">
+    <row r="76" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C76" s="17"/>
     </row>
-    <row r="78" spans="3:13"/>
-    <row r="79" spans="3:13"/>
-    <row r="80" spans="3:13"/>
-    <row r="81"/>
-    <row r="82"/>
+    <row r="78" spans="3:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="3:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="3:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C14:N20">
     <sortCondition descending="1" ref="G14:G20"/>
@@ -38328,29 +38406,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E080B9D539EE5249B0F7896E1534F47F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1a88378f58b9ad7590fd740332c19a90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c298b4c-1b69-4120-abb9-a44ffc4bda23" xmlns:ns3="c3e1b4bb-9124-477c-aa49-683b9a26b58f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="910b3ddf48a2c6cdf16d80fb4d738ee7" ns2:_="" ns3:_="">
     <xsd:import namespace="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
@@ -38551,14 +38606,62 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB2503F1-0DF7-4480-9719-319FD439755B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB2503F1-0DF7-4480-9719-319FD439755B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>